--- a/result/JF25034/CT&INV&PL JF25034 CUSTOM.xlsx
+++ b/result/JF25034/CT&INV&PL JF25034 CUSTOM.xlsx
@@ -444,7 +444,7 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
@@ -799,6 +799,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="38" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1490,7 +1502,7 @@
       </c>
       <c r="E3" s="108" t="inlineStr">
         <is>
-          <t>JFTIME</t>
+          <t>sdfasdf</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1517,7 @@
       </c>
       <c r="E4" s="57" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>asdfafd</t>
         </is>
       </c>
     </row>
@@ -1637,14 +1649,14 @@
         </is>
       </c>
       <c r="C16" s="111" t="n">
-        <v>17607.5</v>
+        <v>70430</v>
       </c>
       <c r="D16" s="111">
         <f>E16/C16</f>
         <v/>
       </c>
       <c r="E16" s="111" t="n">
-        <v>22009.375</v>
+        <v>88037.5</v>
       </c>
     </row>
     <row r="17" ht="30" customFormat="1" customHeight="1" s="36">
@@ -1657,14 +1669,14 @@
         </is>
       </c>
       <c r="C17" s="111" t="n">
-        <v>135242</v>
+        <v>199477.7</v>
       </c>
       <c r="D17" s="111">
         <f>E17/C17</f>
         <v/>
       </c>
       <c r="E17" s="111" t="n">
-        <v>168725.024</v>
+        <v>249019.649</v>
       </c>
     </row>
     <row r="18" ht="30" customFormat="1" customHeight="1" s="36">
@@ -2173,7 +2185,7 @@
       </c>
       <c r="G7" s="58" t="inlineStr">
         <is>
-          <t>JFREF</t>
+          <t>sdfasdf</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2208,7 @@
       </c>
       <c r="G8" s="86" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>asdfafd</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2227,7 @@
       </c>
       <c r="G9" s="88" t="inlineStr">
         <is>
-          <t>JFTIME</t>
+          <t>sdfasdf</t>
         </is>
       </c>
     </row>
@@ -2409,14 +2421,14 @@
         </is>
       </c>
       <c r="E22" s="122" t="n">
-        <v>17607.5</v>
+        <v>70430</v>
       </c>
       <c r="F22" s="122">
         <f>G22/E22</f>
         <v/>
       </c>
       <c r="G22" s="122" t="n">
-        <v>22009.375</v>
+        <v>88037.5</v>
       </c>
     </row>
     <row r="23" ht="35" customHeight="1">
@@ -2437,14 +2449,14 @@
       </c>
       <c r="D23" s="124" t="n"/>
       <c r="E23" s="122" t="n">
-        <v>135242</v>
+        <v>199477.7</v>
       </c>
       <c r="F23" s="122">
         <f>G23/E23</f>
         <v/>
       </c>
       <c r="G23" s="122" t="n">
-        <v>168725.024</v>
+        <v>249019.649</v>
       </c>
     </row>
     <row r="24" ht="35" customHeight="1">
@@ -2530,7 +2542,11 @@
           <t>TOTAL:</t>
         </is>
       </c>
-      <c r="C27" s="126" t="n"/>
+      <c r="C27" s="126" t="inlineStr">
+        <is>
+          <t>39 PALLETS</t>
+        </is>
+      </c>
       <c r="D27" s="126" t="n"/>
       <c r="E27" s="127">
         <f>SUM(E22:E26)</f>
@@ -3040,7 +3056,7 @@
       </c>
       <c r="I7" s="87" t="inlineStr">
         <is>
-          <t>JFREF</t>
+          <t>sdfasdf</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3080,7 @@
       </c>
       <c r="I8" s="85" t="inlineStr">
         <is>
-          <t>JFINV</t>
+          <t>asdfafd</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3100,7 @@
       </c>
       <c r="I9" s="88" t="inlineStr">
         <is>
-          <t>JFTIME</t>
+          <t>sdfasdf</t>
         </is>
       </c>
     </row>
@@ -4394,7 +4410,11 @@
           <t>TOTAL:</t>
         </is>
       </c>
-      <c r="C63" s="126" t="n"/>
+      <c r="C63" s="126" t="inlineStr">
+        <is>
+          <t>27 PALLETS</t>
+        </is>
+      </c>
       <c r="D63" s="126" t="n"/>
       <c r="E63" s="132">
         <f>SUM(E23:E61)</f>
@@ -4417,242 +4437,863 @@
         <v/>
       </c>
     </row>
-    <row r="64" ht="21" customHeight="1">
-      <c r="A64" s="20" t="n"/>
-      <c r="B64" s="65" t="n"/>
-    </row>
-    <row r="65" ht="21" customHeight="1">
-      <c r="A65" s="13" t="inlineStr">
+    <row r="64" ht="27" customHeight="1"/>
+    <row r="65" ht="27" customHeight="1">
+      <c r="A65" s="118" t="inlineStr">
+        <is>
+          <t>Mark &amp; Nº</t>
+        </is>
+      </c>
+      <c r="B65" s="118" t="inlineStr">
+        <is>
+          <t>P.O Nº</t>
+        </is>
+      </c>
+      <c r="C65" s="118" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="D65" s="118" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E65" s="118" t="inlineStr">
+        <is>
+          <t>Quantity(SF)</t>
+        </is>
+      </c>
+      <c r="F65" s="113" t="n"/>
+      <c r="G65" s="118" t="inlineStr">
+        <is>
+          <t>G.W (kgs)</t>
+        </is>
+      </c>
+      <c r="H65" s="118" t="inlineStr">
+        <is>
+          <t>N.W (kgs)</t>
+        </is>
+      </c>
+      <c r="I65" s="118" t="inlineStr">
+        <is>
+          <t>CBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="66" ht="27" customHeight="1">
+      <c r="A66" s="125" t="n"/>
+      <c r="B66" s="125" t="n"/>
+      <c r="C66" s="125" t="n"/>
+      <c r="D66" s="125" t="n"/>
+      <c r="E66" s="118" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="F66" s="118" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G66" s="125" t="n"/>
+      <c r="H66" s="125" t="n"/>
+      <c r="I66" s="125" t="n"/>
+    </row>
+    <row r="67" ht="27" customHeight="1">
+      <c r="A67" s="128" t="inlineStr">
+        <is>
+          <t>VENDOR#:</t>
+        </is>
+      </c>
+      <c r="B67" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C67" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D67" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="E67" s="129" t="n">
+        <v>190</v>
+      </c>
+      <c r="F67" s="122" t="n">
+        <v>10209.3</v>
+      </c>
+      <c r="G67" s="122" t="n">
+        <v>813.5</v>
+      </c>
+      <c r="H67" s="122" t="n">
+        <v>768.5</v>
+      </c>
+      <c r="I67" s="130" t="n">
+        <v>2.574</v>
+      </c>
+    </row>
+    <row r="68" ht="27" customHeight="1">
+      <c r="A68" s="131" t="inlineStr">
+        <is>
+          <t>Des: LEATHER</t>
+        </is>
+      </c>
+      <c r="B68" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C68" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D68" s="124" t="n"/>
+      <c r="E68" s="129" t="n">
+        <v>135</v>
+      </c>
+      <c r="F68" s="122" t="n">
+        <v>7398.2</v>
+      </c>
+      <c r="G68" s="122" t="n">
+        <v>613.5</v>
+      </c>
+      <c r="H68" s="122" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="I68" s="130" t="n">
+        <v>2.1384</v>
+      </c>
+    </row>
+    <row r="69" ht="27" customHeight="1">
+      <c r="A69" s="131" t="inlineStr">
+        <is>
+          <t>Case Qty:</t>
+        </is>
+      </c>
+      <c r="B69" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C69" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D69" s="124" t="n"/>
+      <c r="E69" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F69" s="122" t="n">
+        <v>10724.7</v>
+      </c>
+      <c r="G69" s="122" t="n">
+        <v>880.5</v>
+      </c>
+      <c r="H69" s="122" t="n">
+        <v>835.5</v>
+      </c>
+      <c r="I69" s="130" t="n">
+        <v>2.6532</v>
+      </c>
+    </row>
+    <row r="70" ht="27" customHeight="1">
+      <c r="A70" s="131" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B70" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C70" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D70" s="125" t="n"/>
+      <c r="E70" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F70" s="122" t="n">
+        <v>10687.2</v>
+      </c>
+      <c r="G70" s="122" t="n">
+        <v>861</v>
+      </c>
+      <c r="H70" s="122" t="n">
+        <v>816</v>
+      </c>
+      <c r="I70" s="130" t="n">
+        <v>2.4948</v>
+      </c>
+    </row>
+    <row r="71" ht="27" customHeight="1">
+      <c r="A71" s="131" t="n"/>
+      <c r="B71" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER (HS.CODE: 4107.12.00)</t>
+        </is>
+      </c>
+      <c r="C71" s="113" t="n"/>
+      <c r="D71" s="121" t="n"/>
+      <c r="E71" s="129" t="n"/>
+      <c r="F71" s="122" t="n"/>
+      <c r="G71" s="122" t="n"/>
+      <c r="H71" s="122" t="n"/>
+      <c r="I71" s="130" t="n"/>
+    </row>
+    <row r="72" ht="27" customHeight="1">
+      <c r="A72" s="126" t="n"/>
+      <c r="B72" s="126" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="C72" s="126" t="inlineStr">
+        <is>
+          <t>4 PALLETS</t>
+        </is>
+      </c>
+      <c r="D72" s="126" t="n"/>
+      <c r="E72" s="132">
+        <f>SUM(E67:E70)</f>
+        <v/>
+      </c>
+      <c r="F72" s="127">
+        <f>SUM(F67:F70)</f>
+        <v/>
+      </c>
+      <c r="G72" s="127">
+        <f>SUM(G67:G70)</f>
+        <v/>
+      </c>
+      <c r="H72" s="127">
+        <f>SUM(H67:H70)</f>
+        <v/>
+      </c>
+      <c r="I72" s="133">
+        <f>SUM(I67:I70)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" ht="27" customHeight="1"/>
+    <row r="74" ht="27" customHeight="1">
+      <c r="A74" s="118" t="inlineStr">
+        <is>
+          <t>Mark &amp; Nº</t>
+        </is>
+      </c>
+      <c r="B74" s="118" t="inlineStr">
+        <is>
+          <t>P.O Nº</t>
+        </is>
+      </c>
+      <c r="C74" s="118" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="D74" s="118" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E74" s="118" t="inlineStr">
+        <is>
+          <t>Quantity(SF)</t>
+        </is>
+      </c>
+      <c r="F74" s="113" t="n"/>
+      <c r="G74" s="118" t="inlineStr">
+        <is>
+          <t>G.W (kgs)</t>
+        </is>
+      </c>
+      <c r="H74" s="118" t="inlineStr">
+        <is>
+          <t>N.W (kgs)</t>
+        </is>
+      </c>
+      <c r="I74" s="118" t="inlineStr">
+        <is>
+          <t>CBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" ht="27" customHeight="1">
+      <c r="A75" s="125" t="n"/>
+      <c r="B75" s="125" t="n"/>
+      <c r="C75" s="125" t="n"/>
+      <c r="D75" s="125" t="n"/>
+      <c r="E75" s="118" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="F75" s="118" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G75" s="125" t="n"/>
+      <c r="H75" s="125" t="n"/>
+      <c r="I75" s="125" t="n"/>
+    </row>
+    <row r="76" ht="27" customHeight="1">
+      <c r="A76" s="128" t="inlineStr">
+        <is>
+          <t>VENDOR#:</t>
+        </is>
+      </c>
+      <c r="B76" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C76" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D76" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="E76" s="129" t="n">
+        <v>190</v>
+      </c>
+      <c r="F76" s="122" t="n">
+        <v>10209.3</v>
+      </c>
+      <c r="G76" s="122" t="n">
+        <v>813.5</v>
+      </c>
+      <c r="H76" s="122" t="n">
+        <v>768.5</v>
+      </c>
+      <c r="I76" s="130" t="n">
+        <v>2.574</v>
+      </c>
+    </row>
+    <row r="77" ht="27" customHeight="1">
+      <c r="A77" s="131" t="inlineStr">
+        <is>
+          <t>Des: LEATHER</t>
+        </is>
+      </c>
+      <c r="B77" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C77" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D77" s="124" t="n"/>
+      <c r="E77" s="129" t="n">
+        <v>135</v>
+      </c>
+      <c r="F77" s="122" t="n">
+        <v>7398.2</v>
+      </c>
+      <c r="G77" s="122" t="n">
+        <v>613.5</v>
+      </c>
+      <c r="H77" s="122" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="I77" s="130" t="n">
+        <v>2.1384</v>
+      </c>
+    </row>
+    <row r="78" ht="27" customHeight="1">
+      <c r="A78" s="131" t="inlineStr">
+        <is>
+          <t>Case Qty:</t>
+        </is>
+      </c>
+      <c r="B78" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C78" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D78" s="124" t="n"/>
+      <c r="E78" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F78" s="122" t="n">
+        <v>10724.7</v>
+      </c>
+      <c r="G78" s="122" t="n">
+        <v>880.5</v>
+      </c>
+      <c r="H78" s="122" t="n">
+        <v>835.5</v>
+      </c>
+      <c r="I78" s="130" t="n">
+        <v>2.6532</v>
+      </c>
+    </row>
+    <row r="79" ht="27" customHeight="1">
+      <c r="A79" s="131" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B79" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C79" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D79" s="125" t="n"/>
+      <c r="E79" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F79" s="122" t="n">
+        <v>10687.2</v>
+      </c>
+      <c r="G79" s="122" t="n">
+        <v>861</v>
+      </c>
+      <c r="H79" s="122" t="n">
+        <v>816</v>
+      </c>
+      <c r="I79" s="130" t="n">
+        <v>2.4948</v>
+      </c>
+    </row>
+    <row r="80" ht="27" customHeight="1">
+      <c r="A80" s="131" t="n"/>
+      <c r="B80" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER (HS.CODE: 4107.12.00)</t>
+        </is>
+      </c>
+      <c r="C80" s="113" t="n"/>
+      <c r="D80" s="121" t="n"/>
+      <c r="E80" s="129" t="n"/>
+      <c r="F80" s="122" t="n"/>
+      <c r="G80" s="122" t="n"/>
+      <c r="H80" s="122" t="n"/>
+      <c r="I80" s="130" t="n"/>
+    </row>
+    <row r="81" ht="27" customHeight="1">
+      <c r="A81" s="126" t="n"/>
+      <c r="B81" s="126" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="C81" s="126" t="inlineStr">
+        <is>
+          <t>4 PALLETS</t>
+        </is>
+      </c>
+      <c r="D81" s="126" t="n"/>
+      <c r="E81" s="132">
+        <f>SUM(E76:E79)</f>
+        <v/>
+      </c>
+      <c r="F81" s="127">
+        <f>SUM(F76:F79)</f>
+        <v/>
+      </c>
+      <c r="G81" s="127">
+        <f>SUM(G76:G79)</f>
+        <v/>
+      </c>
+      <c r="H81" s="127">
+        <f>SUM(H76:H79)</f>
+        <v/>
+      </c>
+      <c r="I81" s="133">
+        <f>SUM(I76:I79)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" ht="27" customHeight="1"/>
+    <row r="83" ht="27" customHeight="1">
+      <c r="A83" s="118" t="inlineStr">
+        <is>
+          <t>Mark &amp; Nº</t>
+        </is>
+      </c>
+      <c r="B83" s="118" t="inlineStr">
+        <is>
+          <t>P.O Nº</t>
+        </is>
+      </c>
+      <c r="C83" s="118" t="inlineStr">
+        <is>
+          <t>ITEM Nº</t>
+        </is>
+      </c>
+      <c r="D83" s="118" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="E83" s="118" t="inlineStr">
+        <is>
+          <t>Quantity(SF)</t>
+        </is>
+      </c>
+      <c r="F83" s="113" t="n"/>
+      <c r="G83" s="118" t="inlineStr">
+        <is>
+          <t>G.W (kgs)</t>
+        </is>
+      </c>
+      <c r="H83" s="118" t="inlineStr">
+        <is>
+          <t>N.W (kgs)</t>
+        </is>
+      </c>
+      <c r="I83" s="118" t="inlineStr">
+        <is>
+          <t>CBM</t>
+        </is>
+      </c>
+    </row>
+    <row r="84" ht="27" customHeight="1">
+      <c r="A84" s="125" t="n"/>
+      <c r="B84" s="125" t="n"/>
+      <c r="C84" s="125" t="n"/>
+      <c r="D84" s="125" t="n"/>
+      <c r="E84" s="118" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="F84" s="118" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="G84" s="125" t="n"/>
+      <c r="H84" s="125" t="n"/>
+      <c r="I84" s="125" t="n"/>
+    </row>
+    <row r="85" ht="27" customHeight="1">
+      <c r="A85" s="128" t="inlineStr">
+        <is>
+          <t>VENDOR#:</t>
+        </is>
+      </c>
+      <c r="B85" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C85" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D85" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER</t>
+        </is>
+      </c>
+      <c r="E85" s="129" t="n">
+        <v>190</v>
+      </c>
+      <c r="F85" s="122" t="n">
+        <v>10209.3</v>
+      </c>
+      <c r="G85" s="122" t="n">
+        <v>813.5</v>
+      </c>
+      <c r="H85" s="122" t="n">
+        <v>768.5</v>
+      </c>
+      <c r="I85" s="130" t="n">
+        <v>2.574</v>
+      </c>
+    </row>
+    <row r="86" ht="27" customHeight="1">
+      <c r="A86" s="131" t="inlineStr">
+        <is>
+          <t>Des: LEATHER</t>
+        </is>
+      </c>
+      <c r="B86" s="120" t="inlineStr">
+        <is>
+          <t>9000684226</t>
+        </is>
+      </c>
+      <c r="C86" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U756071</t>
+        </is>
+      </c>
+      <c r="D86" s="124" t="n"/>
+      <c r="E86" s="129" t="n">
+        <v>135</v>
+      </c>
+      <c r="F86" s="122" t="n">
+        <v>7398.2</v>
+      </c>
+      <c r="G86" s="122" t="n">
+        <v>613.5</v>
+      </c>
+      <c r="H86" s="122" t="n">
+        <v>568.5</v>
+      </c>
+      <c r="I86" s="130" t="n">
+        <v>2.1384</v>
+      </c>
+    </row>
+    <row r="87" ht="27" customHeight="1">
+      <c r="A87" s="131" t="inlineStr">
+        <is>
+          <t>Case Qty:</t>
+        </is>
+      </c>
+      <c r="B87" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C87" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D87" s="124" t="n"/>
+      <c r="E87" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F87" s="122" t="n">
+        <v>10724.7</v>
+      </c>
+      <c r="G87" s="122" t="n">
+        <v>880.5</v>
+      </c>
+      <c r="H87" s="122" t="n">
+        <v>835.5</v>
+      </c>
+      <c r="I87" s="130" t="n">
+        <v>2.6532</v>
+      </c>
+    </row>
+    <row r="88" ht="27" customHeight="1">
+      <c r="A88" s="131" t="inlineStr">
+        <is>
+          <t>MADE IN CAMBODIA</t>
+        </is>
+      </c>
+      <c r="B88" s="120" t="n">
+        <v>9000714968</v>
+      </c>
+      <c r="C88" s="120" t="inlineStr">
+        <is>
+          <t>01.10.U528073</t>
+        </is>
+      </c>
+      <c r="D88" s="125" t="n"/>
+      <c r="E88" s="129" t="n">
+        <v>200</v>
+      </c>
+      <c r="F88" s="122" t="n">
+        <v>10687.2</v>
+      </c>
+      <c r="G88" s="122" t="n">
+        <v>861</v>
+      </c>
+      <c r="H88" s="122" t="n">
+        <v>816</v>
+      </c>
+      <c r="I88" s="130" t="n">
+        <v>2.4948</v>
+      </c>
+    </row>
+    <row r="89" ht="27" customHeight="1">
+      <c r="A89" s="131" t="n"/>
+      <c r="B89" s="120" t="inlineStr">
+        <is>
+          <t>LEATHER (HS.CODE: 4107.12.00)</t>
+        </is>
+      </c>
+      <c r="C89" s="113" t="n"/>
+      <c r="D89" s="121" t="n"/>
+      <c r="E89" s="129" t="n"/>
+      <c r="F89" s="122" t="n"/>
+      <c r="G89" s="122" t="n"/>
+      <c r="H89" s="122" t="n"/>
+      <c r="I89" s="130" t="n"/>
+    </row>
+    <row r="90" ht="27" customHeight="1">
+      <c r="A90" s="126" t="n"/>
+      <c r="B90" s="126" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="C90" s="126" t="inlineStr">
+        <is>
+          <t>4 PALLETS</t>
+        </is>
+      </c>
+      <c r="D90" s="126" t="n"/>
+      <c r="E90" s="132">
+        <f>SUM(E85:E88)</f>
+        <v/>
+      </c>
+      <c r="F90" s="127">
+        <f>SUM(F85:F88)</f>
+        <v/>
+      </c>
+      <c r="G90" s="127">
+        <f>SUM(G85:G88)</f>
+        <v/>
+      </c>
+      <c r="H90" s="127">
+        <f>SUM(H85:H88)</f>
+        <v/>
+      </c>
+      <c r="I90" s="133">
+        <f>SUM(I85:I88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" ht="27" customHeight="1">
+      <c r="B91" s="134" t="inlineStr">
+        <is>
+          <t>TOTAL OF:</t>
+        </is>
+      </c>
+      <c r="C91" s="134" t="inlineStr">
+        <is>
+          <t>39 PALLETS</t>
+        </is>
+      </c>
+      <c r="E91" s="135">
+        <f>SUM(E23:E61,E67:E70,E76:E79,E85:E88)</f>
+        <v/>
+      </c>
+      <c r="F91" s="136">
+        <f>SUM(F23:F61,F67:F70,F76:F79,F85:F88)</f>
+        <v/>
+      </c>
+      <c r="G91" s="136">
+        <f>SUM(G23:G61,G67:G70,G76:G79,G85:G88)</f>
+        <v/>
+      </c>
+      <c r="H91" s="136">
+        <f>SUM(H23:H61,H67:H70,H76:H79,H85:H88)</f>
+        <v/>
+      </c>
+      <c r="I91" s="137">
+        <f>SUM(I23:I61,I67:I70,I76:I79,I85:I88)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="20" t="n"/>
+      <c r="B92" s="65" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="13" t="inlineStr">
         <is>
           <t>Country of Original Cambodia</t>
         </is>
       </c>
-      <c r="B65" s="13" t="n"/>
-      <c r="C65" s="13" t="n"/>
-      <c r="D65" s="101" t="n"/>
-      <c r="E65" s="27" t="n"/>
-      <c r="F65" s="96" t="n"/>
-      <c r="G65" s="96" t="n"/>
-      <c r="H65" s="96" t="n"/>
-    </row>
-    <row r="66" ht="65.25" customHeight="1">
-      <c r="A66" s="28" t="inlineStr">
+      <c r="B93" s="13" t="n"/>
+      <c r="C93" s="13" t="n"/>
+      <c r="D93" s="101" t="n"/>
+      <c r="E93" s="27" t="n"/>
+      <c r="F93" s="96" t="n"/>
+      <c r="G93" s="96" t="n"/>
+      <c r="H93" s="96" t="n"/>
+    </row>
+    <row r="94" ht="65.25" customHeight="1">
+      <c r="A94" s="28" t="inlineStr">
         <is>
           <t>Manufacture:</t>
         </is>
       </c>
-      <c r="B66" s="104" t="inlineStr">
+      <c r="B94" s="104" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.
 XIN BAVET SEZ, Road No. 316A, Trapeang Bon and Prey Kokir Villages, Prey Kokir Commune, Chantrea District,Svay Rieng Province, Kingdom of Cambodia, Tel: +855   975910636</t>
         </is>
       </c>
-      <c r="E66" s="31" t="n"/>
-      <c r="F66" s="31" t="n"/>
-      <c r="G66" s="31" t="n"/>
-      <c r="H66" s="96" t="n"/>
-    </row>
-    <row r="67" ht="51.75" customHeight="1">
-      <c r="A67" s="104" t="inlineStr">
+      <c r="E94" s="31" t="n"/>
+      <c r="F94" s="31" t="n"/>
+      <c r="G94" s="31" t="n"/>
+      <c r="H94" s="96" t="n"/>
+    </row>
+    <row r="95" ht="51.75" customHeight="1">
+      <c r="A95" s="104" t="inlineStr">
         <is>
           <t>BENEFICIARY BANK：BANK OF CHINA(HONG KONG)LIMITED  PHNOM PENH BRANCH
                                           /BANK OF CHINA PHNOM PENH BRANCH</t>
         </is>
       </c>
-      <c r="E67" s="31" t="n"/>
-      <c r="F67" s="31" t="n"/>
-      <c r="G67" s="31" t="n"/>
-      <c r="H67" s="31" t="n"/>
-    </row>
-    <row r="68" ht="21" customHeight="1">
-      <c r="A68" s="99" t="inlineStr">
+      <c r="E95" s="31" t="n"/>
+      <c r="F95" s="31" t="n"/>
+      <c r="G95" s="31" t="n"/>
+      <c r="H95" s="31" t="n"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="99" t="inlineStr">
         <is>
           <t>A/C NO:100001100764430</t>
         </is>
       </c>
-      <c r="B68" s="99" t="n"/>
-      <c r="C68" s="99" t="n"/>
-      <c r="D68" s="99" t="n"/>
-      <c r="E68" s="16" t="n"/>
-      <c r="F68" s="16" t="n"/>
-      <c r="G68" s="16" t="n"/>
-      <c r="H68" s="16" t="n"/>
-    </row>
-    <row r="69" ht="21" customHeight="1">
-      <c r="A69" s="99" t="inlineStr">
+      <c r="B96" s="99" t="n"/>
+      <c r="C96" s="99" t="n"/>
+      <c r="D96" s="99" t="n"/>
+      <c r="E96" s="16" t="n"/>
+      <c r="F96" s="16" t="n"/>
+      <c r="G96" s="16" t="n"/>
+      <c r="H96" s="16" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="99" t="inlineStr">
         <is>
           <t>SWIFT CODE  ：BKCHKHPPXXX</t>
         </is>
       </c>
-      <c r="B69" s="99" t="n"/>
-      <c r="C69" s="99" t="n"/>
-      <c r="D69" s="99" t="n"/>
-      <c r="E69" s="16" t="n"/>
-      <c r="F69" s="16" t="n"/>
-      <c r="G69" s="16" t="n"/>
-      <c r="H69" s="16" t="n"/>
-    </row>
-    <row r="70" ht="21" customHeight="1">
-      <c r="A70" s="82" t="n"/>
-      <c r="B70" s="83" t="n"/>
-      <c r="C70" s="82" t="n"/>
-      <c r="D70" s="82" t="n"/>
-      <c r="E70" s="84" t="n"/>
-      <c r="F70" s="96" t="inlineStr">
+      <c r="B97" s="99" t="n"/>
+      <c r="C97" s="99" t="n"/>
+      <c r="D97" s="99" t="n"/>
+      <c r="E97" s="16" t="n"/>
+      <c r="F97" s="16" t="n"/>
+      <c r="G97" s="16" t="n"/>
+      <c r="H97" s="16" t="n"/>
+    </row>
+    <row r="98" ht="115.7" customHeight="1">
+      <c r="A98" s="82" t="n"/>
+      <c r="B98" s="83" t="n"/>
+      <c r="C98" s="82" t="n"/>
+      <c r="D98" s="82" t="n"/>
+      <c r="E98" s="84" t="n"/>
+      <c r="F98" s="96" t="inlineStr">
         <is>
           <t>CALIFOR UPHOLSTERY MATERIALS CO., LTD.</t>
         </is>
       </c>
-      <c r="G70" s="96" t="n"/>
-      <c r="H70" s="84" t="n"/>
-    </row>
-    <row r="71" ht="21" customHeight="1"/>
-    <row r="72" ht="25.5" customHeight="1"/>
-    <row r="73" ht="21" customHeight="1"/>
-    <row r="74" ht="21" customHeight="1"/>
-    <row r="75" ht="21" customHeight="1"/>
-    <row r="76" ht="21" customHeight="1"/>
-    <row r="77" ht="21" customHeight="1"/>
-    <row r="78" ht="17.25" customHeight="1"/>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81"/>
-    <row r="82"/>
-    <row r="83">
-      <c r="A83" s="71" t="n"/>
-      <c r="B83" s="67" t="n"/>
-      <c r="C83" s="52" t="n"/>
-      <c r="D83" s="53" t="n"/>
-      <c r="E83" s="54" t="n"/>
-      <c r="F83" s="55" t="n"/>
-      <c r="G83" s="55" t="n"/>
-      <c r="H83" s="55" t="n"/>
-      <c r="I83" s="55" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="21" t="n"/>
-      <c r="B84" s="67" t="n"/>
-      <c r="C84" s="52" t="n"/>
-      <c r="D84" s="53" t="n"/>
-      <c r="E84" s="54" t="n"/>
-      <c r="F84" s="55" t="n"/>
-      <c r="G84" s="55" t="n"/>
-      <c r="H84" s="55" t="n"/>
-      <c r="I84" s="55" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="21" t="n"/>
-      <c r="B85" s="67" t="n"/>
-      <c r="C85" s="52" t="n"/>
-      <c r="D85" s="53" t="n"/>
-      <c r="E85" s="54" t="n"/>
-      <c r="F85" s="55" t="n"/>
-      <c r="G85" s="55" t="n"/>
-      <c r="H85" s="55" t="n"/>
-      <c r="I85" s="55" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="21" t="n"/>
-      <c r="B86" s="67" t="n"/>
-      <c r="C86" s="52" t="n"/>
-      <c r="D86" s="53" t="n"/>
-      <c r="E86" s="54" t="n"/>
-      <c r="F86" s="55" t="n"/>
-      <c r="G86" s="55" t="n"/>
-      <c r="H86" s="55" t="n"/>
-      <c r="I86" s="55" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="21" t="n"/>
-      <c r="B87" s="67" t="n"/>
-      <c r="C87" s="52" t="n"/>
-      <c r="D87" s="53" t="n"/>
-      <c r="E87" s="54" t="n"/>
-      <c r="F87" s="55" t="n"/>
-      <c r="G87" s="55" t="n"/>
-      <c r="H87" s="55" t="n"/>
-      <c r="I87" s="55" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="21" t="n"/>
-      <c r="B88" s="67" t="n"/>
-      <c r="C88" s="52" t="n"/>
-      <c r="D88" s="53" t="n"/>
-      <c r="E88" s="54" t="n"/>
-      <c r="F88" s="55" t="n"/>
-      <c r="G88" s="55" t="n"/>
-      <c r="H88" s="55" t="n"/>
-      <c r="I88" s="55" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="21" t="n"/>
-      <c r="B89" s="67" t="n"/>
-      <c r="C89" s="52" t="n"/>
-      <c r="D89" s="53" t="n"/>
-      <c r="E89" s="54" t="n"/>
-      <c r="F89" s="55" t="n"/>
-      <c r="G89" s="55" t="n"/>
-      <c r="H89" s="55" t="n"/>
-      <c r="I89" s="55" t="n"/>
-    </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="21" t="n"/>
-      <c r="B90" s="67" t="n"/>
-      <c r="C90" s="52" t="n"/>
-      <c r="D90" s="53" t="n"/>
-      <c r="E90" s="54" t="n"/>
-      <c r="F90" s="55" t="n"/>
-      <c r="G90" s="55" t="n"/>
-      <c r="H90" s="55" t="n"/>
-      <c r="I90" s="55" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="21" t="n"/>
-      <c r="B91" s="67" t="n"/>
-      <c r="C91" s="52" t="n"/>
-      <c r="D91" s="53" t="n"/>
-      <c r="E91" s="54" t="n"/>
-      <c r="F91" s="55" t="n"/>
-      <c r="G91" s="55" t="n"/>
-      <c r="H91" s="55" t="n"/>
-      <c r="I91" s="55" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="101" t="n"/>
-      <c r="B92" s="68" t="n"/>
-      <c r="C92" s="24" t="n"/>
-      <c r="D92" s="101" t="n"/>
-      <c r="E92" s="25" t="n"/>
-      <c r="F92" s="26" t="n"/>
-      <c r="G92" s="26" t="n"/>
-      <c r="H92" s="26" t="n"/>
-      <c r="I92" s="26" t="n"/>
-    </row>
-    <row r="93"/>
-    <row r="94"/>
-    <row r="95"/>
-    <row r="96"/>
-    <row r="97">
-      <c r="B97" s="69" t="n"/>
-    </row>
-    <row r="98" ht="115.7" customHeight="1"/>
+      <c r="G98" s="96" t="n"/>
+      <c r="H98" s="84" t="n"/>
+    </row>
     <row r="99" ht="113.65" customHeight="1"/>
-    <row r="100">
-      <c r="F100" s="96" t="n"/>
-      <c r="G100" s="96" t="n"/>
-      <c r="H100" s="96" t="n"/>
-    </row>
-    <row r="101">
-      <c r="F101" s="96" t="n"/>
-      <c r="G101" s="96" t="n"/>
-      <c r="H101" s="96" t="n"/>
-    </row>
-    <row r="102">
-      <c r="F102" s="96" t="n"/>
-      <c r="G102" s="96" t="n"/>
-      <c r="H102" s="96" t="n"/>
-      <c r="I102" s="96" t="n"/>
-    </row>
+    <row r="100"/>
+    <row r="101"/>
+    <row r="102"/>
     <row r="103"/>
     <row r="104"/>
     <row r="105"/>
@@ -4661,26 +5302,141 @@
     <row r="108"/>
     <row r="109"/>
     <row r="110"/>
-    <row r="111"/>
-    <row r="112"/>
-    <row r="113"/>
-    <row r="114"/>
-    <row r="115"/>
-    <row r="116"/>
-    <row r="117"/>
-    <row r="118"/>
-    <row r="119"/>
-    <row r="120"/>
+    <row r="111">
+      <c r="A111" s="71" t="n"/>
+      <c r="B111" s="67" t="n"/>
+      <c r="C111" s="52" t="n"/>
+      <c r="D111" s="53" t="n"/>
+      <c r="E111" s="54" t="n"/>
+      <c r="F111" s="55" t="n"/>
+      <c r="G111" s="55" t="n"/>
+      <c r="H111" s="55" t="n"/>
+      <c r="I111" s="55" t="n"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="21" t="n"/>
+      <c r="B112" s="67" t="n"/>
+      <c r="C112" s="52" t="n"/>
+      <c r="D112" s="53" t="n"/>
+      <c r="E112" s="54" t="n"/>
+      <c r="F112" s="55" t="n"/>
+      <c r="G112" s="55" t="n"/>
+      <c r="H112" s="55" t="n"/>
+      <c r="I112" s="55" t="n"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="21" t="n"/>
+      <c r="B113" s="67" t="n"/>
+      <c r="C113" s="52" t="n"/>
+      <c r="D113" s="53" t="n"/>
+      <c r="E113" s="54" t="n"/>
+      <c r="F113" s="55" t="n"/>
+      <c r="G113" s="55" t="n"/>
+      <c r="H113" s="55" t="n"/>
+      <c r="I113" s="55" t="n"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="21" t="n"/>
+      <c r="B114" s="67" t="n"/>
+      <c r="C114" s="52" t="n"/>
+      <c r="D114" s="53" t="n"/>
+      <c r="E114" s="54" t="n"/>
+      <c r="F114" s="55" t="n"/>
+      <c r="G114" s="55" t="n"/>
+      <c r="H114" s="55" t="n"/>
+      <c r="I114" s="55" t="n"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="21" t="n"/>
+      <c r="B115" s="67" t="n"/>
+      <c r="C115" s="52" t="n"/>
+      <c r="D115" s="53" t="n"/>
+      <c r="E115" s="54" t="n"/>
+      <c r="F115" s="55" t="n"/>
+      <c r="G115" s="55" t="n"/>
+      <c r="H115" s="55" t="n"/>
+      <c r="I115" s="55" t="n"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="21" t="n"/>
+      <c r="B116" s="67" t="n"/>
+      <c r="C116" s="52" t="n"/>
+      <c r="D116" s="53" t="n"/>
+      <c r="E116" s="54" t="n"/>
+      <c r="F116" s="55" t="n"/>
+      <c r="G116" s="55" t="n"/>
+      <c r="H116" s="55" t="n"/>
+      <c r="I116" s="55" t="n"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="21" t="n"/>
+      <c r="B117" s="67" t="n"/>
+      <c r="C117" s="52" t="n"/>
+      <c r="D117" s="53" t="n"/>
+      <c r="E117" s="54" t="n"/>
+      <c r="F117" s="55" t="n"/>
+      <c r="G117" s="55" t="n"/>
+      <c r="H117" s="55" t="n"/>
+      <c r="I117" s="55" t="n"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="21" t="n"/>
+      <c r="B118" s="67" t="n"/>
+      <c r="C118" s="52" t="n"/>
+      <c r="D118" s="53" t="n"/>
+      <c r="E118" s="54" t="n"/>
+      <c r="F118" s="55" t="n"/>
+      <c r="G118" s="55" t="n"/>
+      <c r="H118" s="55" t="n"/>
+      <c r="I118" s="55" t="n"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="21" t="n"/>
+      <c r="B119" s="67" t="n"/>
+      <c r="C119" s="52" t="n"/>
+      <c r="D119" s="53" t="n"/>
+      <c r="E119" s="54" t="n"/>
+      <c r="F119" s="55" t="n"/>
+      <c r="G119" s="55" t="n"/>
+      <c r="H119" s="55" t="n"/>
+      <c r="I119" s="55" t="n"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="101" t="n"/>
+      <c r="B120" s="68" t="n"/>
+      <c r="C120" s="24" t="n"/>
+      <c r="D120" s="101" t="n"/>
+      <c r="E120" s="25" t="n"/>
+      <c r="F120" s="26" t="n"/>
+      <c r="G120" s="26" t="n"/>
+      <c r="H120" s="26" t="n"/>
+      <c r="I120" s="26" t="n"/>
+    </row>
     <row r="121"/>
     <row r="122"/>
     <row r="123"/>
     <row r="124"/>
-    <row r="125"/>
+    <row r="125">
+      <c r="B125" s="69" t="n"/>
+    </row>
     <row r="126"/>
     <row r="127"/>
-    <row r="128"/>
-    <row r="129"/>
-    <row r="130"/>
+    <row r="128">
+      <c r="F128" s="96" t="n"/>
+      <c r="G128" s="96" t="n"/>
+      <c r="H128" s="96" t="n"/>
+    </row>
+    <row r="129">
+      <c r="F129" s="96" t="n"/>
+      <c r="G129" s="96" t="n"/>
+      <c r="H129" s="96" t="n"/>
+    </row>
+    <row r="130">
+      <c r="F130" s="96" t="n"/>
+      <c r="G130" s="96" t="n"/>
+      <c r="H130" s="96" t="n"/>
+      <c r="I130" s="96" t="n"/>
+    </row>
     <row r="131"/>
     <row r="132"/>
     <row r="133"/>
@@ -4690,24 +5446,12 @@
     <row r="137"/>
     <row r="138"/>
     <row r="139"/>
-    <row r="140">
-      <c r="I140" s="96" t="n"/>
-    </row>
-    <row r="141">
-      <c r="I141" s="96" t="n"/>
-    </row>
-    <row r="142">
-      <c r="I142" s="96" t="n"/>
-    </row>
-    <row r="143">
-      <c r="I143" s="16" t="n"/>
-    </row>
-    <row r="144">
-      <c r="I144" s="16" t="n"/>
-    </row>
-    <row r="145">
-      <c r="I145" s="96" t="n"/>
-    </row>
+    <row r="140"/>
+    <row r="141"/>
+    <row r="142"/>
+    <row r="143"/>
+    <row r="144"/>
+    <row r="145"/>
     <row r="146"/>
     <row r="147"/>
     <row r="148"/>
@@ -4730,12 +5474,24 @@
     <row r="165"/>
     <row r="166"/>
     <row r="167"/>
-    <row r="168"/>
-    <row r="169"/>
-    <row r="170"/>
-    <row r="171"/>
-    <row r="172"/>
-    <row r="173"/>
+    <row r="168">
+      <c r="I168" s="96" t="n"/>
+    </row>
+    <row r="169">
+      <c r="I169" s="96" t="n"/>
+    </row>
+    <row r="170">
+      <c r="I170" s="96" t="n"/>
+    </row>
+    <row r="171">
+      <c r="I171" s="16" t="n"/>
+    </row>
+    <row r="172">
+      <c r="I172" s="16" t="n"/>
+    </row>
+    <row r="173">
+      <c r="I173" s="96" t="n"/>
+    </row>
     <row r="174"/>
     <row r="175"/>
     <row r="176"/>
@@ -4764,24 +5520,61 @@
     <row r="199"/>
     <row r="200"/>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="56">
     <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="H74:H75"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="H21:H22"/>
     <mergeCell ref="A3:I3"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="B71:C71"/>
     <mergeCell ref="B63"/>
-    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A65:A66"/>
     <mergeCell ref="A2:I2"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A74:A75"/>
     <mergeCell ref="A5:I5"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="A64"/>
+    <mergeCell ref="B91"/>
+    <mergeCell ref="G74:G75"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="I21:I22"/>
+    <mergeCell ref="A73"/>
+    <mergeCell ref="B81"/>
+    <mergeCell ref="D76:D79"/>
+    <mergeCell ref="A82"/>
+    <mergeCell ref="B72"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="B90"/>
     <mergeCell ref="A4:I4"/>
+    <mergeCell ref="E74:F74"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="A83:A84"/>
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C83:C84"/>
     <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="A95:D95"/>
     <mergeCell ref="A6:I6"/>
     <mergeCell ref="B21:B22"/>
+    <mergeCell ref="D85:D88"/>
     <mergeCell ref="D23:D61"/>
     <mergeCell ref="E21:F21"/>
   </mergeCells>
